--- a/server-res/excel/Cfg_Npc.xlsx
+++ b/server-res/excel/Cfg_Npc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,15 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
-  <si>
-    <t>uint32</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,13 +44,6 @@
     <t>名字</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>脚本编号</t>
   </si>
   <si>
@@ -107,15 +97,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>posy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -149,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,6 +186,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -251,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,7 +271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,139 +508,137 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>101001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f>300000000+A3</f>
+        <v>300101001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>101</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>101001</v>
+        <v>101002</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -664,17 +647,17 @@
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>300000000+A4</f>
-        <v>300101001</v>
+        <f t="shared" ref="I4:I7" si="0">300000000+A4</f>
+        <v>300101002</v>
       </c>
       <c r="J4" s="1">
         <v>101</v>
       </c>
       <c r="K4" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -682,38 +665,38 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>101002</v>
+        <v>101003</v>
       </c>
       <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I8" si="0">300000000+A5</f>
-        <v>300101002</v>
+        <f t="shared" si="0"/>
+        <v>300101003</v>
       </c>
       <c r="J5" s="1">
         <v>101</v>
       </c>
       <c r="K5" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -721,19 +704,19 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>101003</v>
+        <v>101004</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -743,16 +726,16 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>300101003</v>
+        <v>300101004</v>
       </c>
       <c r="J6" s="1">
         <v>101</v>
       </c>
       <c r="K6" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L6" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -760,79 +743,40 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>101004</v>
+        <v>101005</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>300101004</v>
+        <v>300101005</v>
       </c>
       <c r="J7" s="1">
         <v>101</v>
       </c>
       <c r="K7" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L7" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>101005</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>300101005</v>
-      </c>
-      <c r="J8" s="1">
-        <v>101</v>
-      </c>
-      <c r="K8" s="1">
-        <v>50</v>
-      </c>
-      <c r="L8" s="1">
-        <v>50</v>
-      </c>
-      <c r="M8" s="1">
         <v>0</v>
       </c>
     </row>
